--- a/Traveller2020.xlsx
+++ b/Traveller2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\100 Nida\0008 ปีการศึกษา 2565_1\DADS5001 เครื่องมือและการเขียนโปรแกรมสำหรับการวิเคราะห์ข้อมูลและวิทยาการข้อมูล\99 ข้อมูลอุทยาน project\02 นักท่องเที่ยว\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20AC745-E1DB-4DCA-B07A-C8F3D5796A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CC055E-B318-4288-9C42-CE4B48FD2E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40935" yWindow="75" windowWidth="16530" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="รวมนทท" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t>เขาใหญ่</t>
   </si>
@@ -435,9 +435,6 @@
   </si>
   <si>
     <t>สาละวิน</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>No</t>
@@ -1023,8 +1020,8 @@
   </sheetPr>
   <dimension ref="A1:P159"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A57" zoomScale="78" zoomScaleNormal="78" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="78" zoomScaleNormal="78" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -1038,49 +1035,49 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>135</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1162,8 +1159,8 @@
       <c r="J3" s="5">
         <v>0</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>133</v>
+      <c r="K3" s="5">
+        <v>0</v>
       </c>
       <c r="L3" s="5">
         <v>6065</v>
@@ -2384,7 +2381,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C29" s="5">
         <v>1110</v>
@@ -3824,7 +3821,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C59" s="5">
         <v>1128</v>
@@ -4016,7 +4013,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C63" s="5">
         <v>253</v>
@@ -4209,7 +4206,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C67" s="5">
         <v>3622</v>
@@ -4257,7 +4254,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C68" s="5">
         <v>2770</v>
@@ -5121,7 +5118,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C86" s="5">
         <v>1014</v>
@@ -5361,7 +5358,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C91" s="5">
         <v>1234</v>
@@ -5745,7 +5742,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C99" s="5">
         <v>42</v>
@@ -6369,7 +6366,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C112" s="5">
         <v>389</v>
@@ -6609,7 +6606,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C117" s="5">
         <v>2691</v>
@@ -6753,7 +6750,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C120" s="5">
         <v>80</v>
@@ -6897,7 +6894,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C123" s="5">
         <v>14315</v>
@@ -7137,7 +7134,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C128" s="5">
         <v>3218</v>
@@ -7377,7 +7374,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C133" s="5">
         <v>6210</v>
@@ -7473,7 +7470,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C135" s="5">
         <v>108753</v>
@@ -7521,7 +7518,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C136" s="5">
         <v>22329</v>
@@ -7953,7 +7950,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C145" s="5">
         <v>118</v>
@@ -8001,7 +7998,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C146" s="5">
         <v>1948</v>
@@ -8049,7 +8046,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C147" s="5">
         <v>0</v>
@@ -8241,7 +8238,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C151" s="7">
         <v>15162</v>
@@ -8433,7 +8430,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C155" s="5">
         <v>314</v>
@@ -8481,7 +8478,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C156" s="5">
         <v>0</v>
